--- a/docs/PPG/Softwares.xlsx
+++ b/docs/PPG/Softwares.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5997596-609C-8A44-B9BD-6A22F57821CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FD225-11BB-204B-BCD0-55830F817F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2440" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteMYO" sheetId="1" r:id="rId1"/>
     <sheet name="SuiteEBG" sheetId="2" r:id="rId2"/>
     <sheet name="SuiteTCM" sheetId="3" r:id="rId3"/>
-    <sheet name="PainMAP" sheetId="5" r:id="rId4"/>
+    <sheet name="wiiVIEW" sheetId="6" r:id="rId4"/>
+    <sheet name="PainMAP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Abrir</t>
   </si>
@@ -91,6 +92,21 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>wiiVIEW Instalador.zip</t>
+  </si>
+  <si>
+    <t>wiiVIEW.zip</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jCy9OHpicJ1hqSKIwsCXGBUnGAh6PAJK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jFdNjOf9fFXxCMZoLMQ6m20zGVEBKLXM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>1.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -122,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,10 +165,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -666,6 +689,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F3B44A-9C9D-744B-98DC-FBBE153BFACC}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5CFC688E-68D7-8F40-BE9C-EA4EE06351C6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E966DB28-B794-D84B-8114-CD3C25BED281}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD4ED3-0828-3F45-AACE-AD3B6CA1345F}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/docs/PPG/Softwares.xlsx
+++ b/docs/PPG/Softwares.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FD225-11BB-204B-BCD0-55830F817F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2ADB26-AC7F-DD40-AC5F-D2A4582D5FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Versão</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SbGREXOSVq0KxWEPxJQP1-t_2A6j57-c/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Programa</t>
   </si>
   <si>
@@ -70,21 +67,6 @@
     <t>SuiteTCM.zip</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1TSzz64zTI7-6C-38k4hO_CMqSGOrbe-I/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14CfUsls-gLUY5qdX1mHb7y3-VrvQiPh1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jVFJDV26qD9sbaIrfqpUoOFD7h-OEzZL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18-LCadmw-phwueqSrrIBsfgtirX6SYHW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nQmJbOiacDI4PIro7x7nXYvdu5w9GDGS/view?usp=sharing</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
@@ -100,13 +82,31 @@
     <t>wiiVIEW.zip</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1jCy9OHpicJ1hqSKIwsCXGBUnGAh6PAJK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jFdNjOf9fFXxCMZoLMQ6m20zGVEBKLXM/view?usp=sharing</t>
-  </si>
-  <si>
     <t>1.0.0.1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14CfUsls-gLUY5qdX1mHb7y3-VrvQiPh1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SbGREXOSVq0KxWEPxJQP1-t_2A6j57-c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jCy9OHpicJ1hqSKIwsCXGBUnGAh6PAJK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jFdNjOf9fFXxCMZoLMQ6m20zGVEBKLXM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jVFJDV26qD9sbaIrfqpUoOFD7h-OEzZL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18-LCadmw-phwueqSrrIBsfgtirX6SYHW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nQmJbOiacDI4PIro7x7nXYvdu5w9GDGS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TSzz64zTI7-6C-38k4hO_CMqSGOrbe-I</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -509,24 +509,24 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -547,8 +547,8 @@
     <sortCondition ref="B2:B6"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E3D3E1F9-FE7D-B944-A8CE-8E91AB04646B}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{215D95AE-ABAE-4C4B-9EC8-C8108B2CD0DE}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1SbGREXOSVq0KxWEPxJQP1-t_2A6j57-c/view?usp=sharing" xr:uid="{E3D3E1F9-FE7D-B944-A8CE-8E91AB04646B}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://drive.google.com/file/d/14CfUsls-gLUY5qdX1mHb7y3-VrvQiPh1/view?usp=sharing" xr:uid="{215D95AE-ABAE-4C4B-9EC8-C8108B2CD0DE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -569,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -580,24 +580,24 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -614,8 +614,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1472B678-B5E2-334E-8460-F11A5F17B321}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{2F321AF4-60E2-2C43-A514-DF586D11309C}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1TSzz64zTI7-6C-38k4hO_CMqSGOrbe-I/view?usp=sharing" xr:uid="{1472B678-B5E2-334E-8460-F11A5F17B321}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://drive.google.com/file/d/1nQmJbOiacDI4PIro7x7nXYvdu5w9GDGS/view?usp=sharing" xr:uid="{2F321AF4-60E2-2C43-A514-DF586D11309C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -636,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -647,24 +647,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,8 +681,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DC9E6BE9-5466-D94D-BA31-B4AF1976D723}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{13D3D255-0750-FC4B-B4A2-E9BCA5A5E820}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1jVFJDV26qD9sbaIrfqpUoOFD7h-OEzZL/view?usp=sharing" xr:uid="{DC9E6BE9-5466-D94D-BA31-B4AF1976D723}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/18-LCadmw-phwueqSrrIBsfgtirX6SYHW/view?usp=sharing" xr:uid="{13D3D255-0750-FC4B-B4A2-E9BCA5A5E820}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -703,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -714,24 +714,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,8 +748,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5CFC688E-68D7-8F40-BE9C-EA4EE06351C6}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E966DB28-B794-D84B-8114-CD3C25BED281}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1jCy9OHpicJ1hqSKIwsCXGBUnGAh6PAJK/view?usp=sharing" xr:uid="{5CFC688E-68D7-8F40-BE9C-EA4EE06351C6}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1jFdNjOf9fFXxCMZoLMQ6m20zGVEBKLXM/view?usp=sharing" xr:uid="{E966DB28-B794-D84B-8114-CD3C25BED281}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -770,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/docs/PPG/Softwares.xlsx
+++ b/docs/PPG/Softwares.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2ADB26-AC7F-DD40-AC5F-D2A4582D5FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ED2FED-314A-D349-AFD4-760A88E06DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="3" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteMYO" sheetId="1" r:id="rId1"/>
     <sheet name="SuiteEBG" sheetId="2" r:id="rId2"/>
     <sheet name="SuiteTCM" sheetId="3" r:id="rId3"/>
     <sheet name="wiiVIEW" sheetId="6" r:id="rId4"/>
-    <sheet name="PainMAP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Abrir</t>
   </si>
@@ -189,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -692,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F3B44A-9C9D-744B-98DC-FBBE153BFACC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -753,51 +752,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD4ED3-0828-3F45-AACE-AD3B6CA1345F}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>